--- a/squashについて.xlsx
+++ b/squashについて.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="react" sheetId="1" r:id="rId1"/>
+    <sheet name="テスト" sheetId="2" r:id="rId2"/>
+    <sheet name="qiita" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>CD</t>
     <phoneticPr fontId="1"/>
@@ -306,6 +306,24 @@
   </si>
   <si>
     <t>このアプリAPIなかった！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Qiita関連</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を動画キャプチャ</t>
+    <rPh sb="3" eb="5">
+      <t>ドウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャプチャしたいウィンドウをアクティブにした状態で、Windows キー + G キーで呼び出して録画ボタンを押すだけです。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -705,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C35"/>
+  <dimension ref="A4:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -812,94 +830,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="27">
-      <c r="A20" s="2">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="40.5">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="40.5">
-      <c r="B35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -909,12 +839,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="40.5">
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="2"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2"/>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="2"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" ht="40.5">
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="40.5">
+      <c r="B17" s="2"/>
+      <c r="C17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -922,13 +974,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40.5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>